--- a/data_analysis/assets/output_files/top_five/top_five_students.xlsx
+++ b/data_analysis/assets/output_files/top_five/top_five_students.xlsx
@@ -34,34 +34,34 @@
     <t>CPI</t>
   </si>
   <si>
-    <t>TCA2107015</t>
-  </si>
-  <si>
-    <t>TCA2107037</t>
-  </si>
-  <si>
-    <t>TCA2107030</t>
-  </si>
-  <si>
-    <t>TCA2107019</t>
-  </si>
-  <si>
-    <t>TCA2107027</t>
-  </si>
-  <si>
-    <t>HARSH KUMAR</t>
-  </si>
-  <si>
-    <t>VARUN SINGH</t>
-  </si>
-  <si>
-    <t>PRANAV KUMAR RAJPUT</t>
-  </si>
-  <si>
-    <t>JYOTSNA JAIN</t>
-  </si>
-  <si>
-    <t>NIKHIL PARMAR</t>
+    <t>TCA2007008</t>
+  </si>
+  <si>
+    <t>TCA2007006</t>
+  </si>
+  <si>
+    <t>TCA2007022</t>
+  </si>
+  <si>
+    <t>TCA2007023</t>
+  </si>
+  <si>
+    <t>TCA2007007</t>
+  </si>
+  <si>
+    <t>KHUSHI AGARWAL</t>
+  </si>
+  <si>
+    <t>APOORV MITTAL</t>
+  </si>
+  <si>
+    <t>SUNIDHI RASTOGI</t>
+  </si>
+  <si>
+    <t>VINIT SAINI</t>
+  </si>
+  <si>
+    <t>GINNI VARSHNEY</t>
   </si>
 </sst>
 </file>
@@ -487,13 +487,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E2" s="2">
-        <v>621</v>
+        <v>724</v>
       </c>
       <c r="F2" s="2">
-        <v>88.62</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -507,13 +507,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E3" s="3">
-        <v>566</v>
+        <v>703</v>
       </c>
       <c r="F3" s="3">
-        <v>81.09999999999999</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -527,13 +527,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2">
-        <v>571</v>
+        <v>687</v>
       </c>
       <c r="F4" s="2">
-        <v>80.43000000000001</v>
+        <v>84.70999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E5" s="3">
-        <v>556</v>
+        <v>681</v>
       </c>
       <c r="F5" s="3">
-        <v>80.33</v>
+        <v>84.29000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -567,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E6" s="2">
-        <v>545</v>
+        <v>669</v>
       </c>
       <c r="F6" s="2">
-        <v>76.95</v>
+        <v>82.14</v>
       </c>
     </row>
   </sheetData>
